--- a/MULTIPLICACION MATRICES/RESULTADOS/Comparacion kernels/MatrixMul_Local_Tiles_resultados.xlsx/resultados.xlsx
+++ b/MULTIPLICACION MATRICES/RESULTADOS/Comparacion kernels/MatrixMul_Local_Tiles_resultados.xlsx/resultados.xlsx
@@ -416,7 +416,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>6.08E-06</v>
+        <v>4.096E-06</v>
       </c>
       <c r="C2" s="1">
         <v>5.12E-06</v>
@@ -433,10 +433,10 @@
         <v>5.12E-06</v>
       </c>
       <c r="C3" s="1">
-        <v>5.12E-06</v>
+        <v>5.184000000000001E-06</v>
       </c>
       <c r="D3" s="1">
-        <v>5.28E-06</v>
+        <v>5.12E-06</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -444,13 +444,13 @@
         <v>32</v>
       </c>
       <c r="B4" s="1">
-        <v>5.216000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="C4" s="1">
-        <v>5.152E-06</v>
+        <v>5.824E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.176000000000001E-06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -458,13 +458,13 @@
         <v>64</v>
       </c>
       <c r="B5" s="1">
-        <v>5.824E-06</v>
+        <v>5.472E-06</v>
       </c>
       <c r="C5" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>5.184000000000001E-06</v>
       </c>
       <c r="D5" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>7.136000000000001E-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -472,13 +472,13 @@
         <v>128</v>
       </c>
       <c r="B6" s="1">
-        <v>1.1264E-05</v>
+        <v>9.216000000000001E-06</v>
       </c>
       <c r="C6" s="1">
-        <v>8.192000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="D6" s="1">
-        <v>1.0944E-05</v>
+        <v>9.216000000000001E-06</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -486,13 +486,13 @@
         <v>256</v>
       </c>
       <c r="B7" s="1">
-        <v>4.1984E-05</v>
+        <v>3.6864E-05</v>
       </c>
       <c r="C7" s="1">
-        <v>2.6464E-05</v>
+        <v>2.336E-05</v>
       </c>
       <c r="D7" s="1">
-        <v>3.072E-05</v>
+        <v>2.7616E-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -500,13 +500,13 @@
         <v>512</v>
       </c>
       <c r="B8" s="1">
-        <v>0.000287776</v>
+        <v>0.000254784</v>
       </c>
       <c r="C8" s="1">
-        <v>0.00014816</v>
+        <v>0.00012896</v>
       </c>
       <c r="D8" s="1">
-        <v>0.000179136</v>
+        <v>0.000160704</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -514,13 +514,13 @@
         <v>1024</v>
       </c>
       <c r="B9" s="1">
-        <v>0.002182144</v>
+        <v>0.001907904</v>
       </c>
       <c r="C9" s="1">
-        <v>0.00111616</v>
+        <v>0.000978944</v>
       </c>
       <c r="D9" s="1">
-        <v>0.001318912</v>
+        <v>0.001165312</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -528,13 +528,13 @@
         <v>2048</v>
       </c>
       <c r="B10" s="1">
-        <v>0.017181696</v>
+        <v>0.015079424</v>
       </c>
       <c r="C10" s="1">
-        <v>0.008939488000000001</v>
+        <v>0.007886848</v>
       </c>
       <c r="D10" s="1">
-        <v>0.010440512</v>
+        <v>0.009224064000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -542,13 +542,13 @@
         <v>4096</v>
       </c>
       <c r="B11" s="1">
-        <v>0.137051104</v>
+        <v>0.137048192</v>
       </c>
       <c r="C11" s="1">
-        <v>0.107936768</v>
+        <v>0.100986784</v>
       </c>
       <c r="D11" s="1">
-        <v>0.09062819200000001</v>
+        <v>0.08653459200000001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -556,13 +556,13 @@
         <v>8192</v>
       </c>
       <c r="B12" s="1">
-        <v>1.033524224</v>
+        <v>0.998468448</v>
       </c>
       <c r="C12" s="1">
-        <v>1.217300512</v>
+        <v>1.191336288</v>
       </c>
       <c r="D12" s="1">
-        <v>0.7980492800000001</v>
+        <v>0.7800872000000001</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>6.08E-06</v>
+        <v>4.096E-06</v>
       </c>
       <c r="C2" s="1">
         <v>5.12E-06</v>
@@ -617,10 +617,10 @@
         <v>5.12E-06</v>
       </c>
       <c r="C3" s="1">
-        <v>5.12E-06</v>
+        <v>5.184000000000001E-06</v>
       </c>
       <c r="D3" s="1">
-        <v>5.28E-06</v>
+        <v>5.12E-06</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -628,13 +628,13 @@
         <v>32</v>
       </c>
       <c r="B4" s="1">
-        <v>5.216000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="C4" s="1">
-        <v>5.152E-06</v>
+        <v>5.824E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.176000000000001E-06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -642,13 +642,13 @@
         <v>64</v>
       </c>
       <c r="B5" s="1">
-        <v>5.824E-06</v>
+        <v>5.472E-06</v>
       </c>
       <c r="C5" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>5.184000000000001E-06</v>
       </c>
       <c r="D5" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>7.136000000000001E-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -656,13 +656,13 @@
         <v>128</v>
       </c>
       <c r="B6" s="1">
-        <v>1.1264E-05</v>
+        <v>9.216000000000001E-06</v>
       </c>
       <c r="C6" s="1">
-        <v>8.192000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="D6" s="1">
-        <v>1.0944E-05</v>
+        <v>9.216000000000001E-06</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -670,13 +670,13 @@
         <v>256</v>
       </c>
       <c r="B7" s="1">
-        <v>4.1984E-05</v>
+        <v>3.6864E-05</v>
       </c>
       <c r="C7" s="1">
-        <v>2.6464E-05</v>
+        <v>2.336E-05</v>
       </c>
       <c r="D7" s="1">
-        <v>3.072E-05</v>
+        <v>2.7616E-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -684,13 +684,13 @@
         <v>512</v>
       </c>
       <c r="B8" s="1">
-        <v>0.000287776</v>
+        <v>0.000254784</v>
       </c>
       <c r="C8" s="1">
-        <v>0.00014816</v>
+        <v>0.00012896</v>
       </c>
       <c r="D8" s="1">
-        <v>0.000179136</v>
+        <v>0.000160704</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -698,13 +698,13 @@
         <v>1024</v>
       </c>
       <c r="B9" s="1">
-        <v>0.002182144</v>
+        <v>0.001907904</v>
       </c>
       <c r="C9" s="1">
-        <v>0.00111616</v>
+        <v>0.000978944</v>
       </c>
       <c r="D9" s="1">
-        <v>0.001318912</v>
+        <v>0.001165312</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -712,13 +712,13 @@
         <v>2048</v>
       </c>
       <c r="B10" s="1">
-        <v>0.017181696</v>
+        <v>0.015079424</v>
       </c>
       <c r="C10" s="1">
-        <v>0.008939488000000001</v>
+        <v>0.007886848</v>
       </c>
       <c r="D10" s="1">
-        <v>0.010440512</v>
+        <v>0.009224064000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -726,13 +726,13 @@
         <v>4096</v>
       </c>
       <c r="B11" s="1">
-        <v>0.137051104</v>
+        <v>0.137048192</v>
       </c>
       <c r="C11" s="1">
-        <v>0.107936768</v>
+        <v>0.100986784</v>
       </c>
       <c r="D11" s="1">
-        <v>0.09062819200000001</v>
+        <v>0.08653459200000001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -740,13 +740,13 @@
         <v>8192</v>
       </c>
       <c r="B12" s="1">
-        <v>1.033524224</v>
+        <v>0.998468448</v>
       </c>
       <c r="C12" s="1">
-        <v>1.217300512</v>
+        <v>1.191336288</v>
       </c>
       <c r="D12" s="1">
-        <v>0.7980492800000001</v>
+        <v>0.7800872000000001</v>
       </c>
     </row>
   </sheetData>
